--- a/data/6月.xlsx
+++ b/data/6月.xlsx
@@ -169,10 +169,10 @@
     <t>2023中餐高考实验1班</t>
   </si>
   <si>
-    <t>2023中餐2班（红杏）</t>
-  </si>
-  <si>
-    <t>2023中餐1班（金龙鱼）</t>
+    <t>2023中餐2班</t>
+  </si>
+  <si>
+    <t>2023中餐1班</t>
   </si>
   <si>
     <t>2023会计/电商高考英才1班</t>
@@ -235,7 +235,7 @@
     <t>2024中餐3班(英才)</t>
   </si>
   <si>
-    <t>2024中餐4班(金龙鱼)</t>
+    <t>2024中餐4班</t>
   </si>
   <si>
     <t>2024中餐5班(实验)</t>
@@ -1777,13 +1777,13 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2:O57"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88888888888889" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28" style="4" customWidth="1"/>
     <col min="3" max="4" width="12.2222222222222" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.6666666666667" style="1" customWidth="1"/>
